--- a/src/main/java/com/sagar/qa/testdata/testdata.xlsx
+++ b/src/main/java/com/sagar/qa/testdata/testdata.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Desktop\SELENIUM TESTING\selenium_page_object_model\src\main\java\com\sagar\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE823C67-8C01-4731-A88F-C3DB433D967E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF6C62-B8FC-4EA2-8F0F-51E69A57882A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F163BB3C-92C8-46E6-81B6-1A6E62D12E95}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{F163BB3C-92C8-46E6-81B6-1A6E62D12E95}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="search" sheetId="2" r:id="rId2"/>
+    <sheet name="changepassword" sheetId="3" r:id="rId3"/>
+    <sheet name="address" sheetId="4" r:id="rId4"/>
+    <sheet name="affiliate" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>phone number</t>
   </si>
@@ -59,6 +62,54 @@
   </si>
   <si>
     <t>scott@gmial.com</t>
+  </si>
+  <si>
+    <t>new password</t>
+  </si>
+  <si>
+    <t>confirm new password</t>
+  </si>
+  <si>
+    <t>Sagarvp1323</t>
+  </si>
+  <si>
+    <t>Sagarvp2313</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>companyname</t>
+  </si>
+  <si>
+    <t>streetaddress</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>sagar</t>
+  </si>
+  <si>
+    <t>vp</t>
+  </si>
+  <si>
+    <t>salem</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>ud</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>sai@gmail.com</t>
+  </si>
+  <si>
+    <t>sai123</t>
   </si>
 </sst>
 </file>
@@ -423,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5C5584-A87B-4BC0-A071-04D18C95D612}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,4 +558,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E5CDFF-994A-405A-8CD6-B2F1FC05022C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653C4775-F338-438B-BDB4-BEF0B2A6C717}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0EAFE2-B3DE-4067-96B6-6FA06902A7E3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BC9270C3-FB89-44ED-A682-50EA6EB4EC7D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A608E194-844C-4601-A4CB-05E2AD8A0E8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>